--- a/prompt_engineering/ROADMAP.xlsx
+++ b/prompt_engineering/ROADMAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hi\Desktop\projects\python_projects\tutorial\tut_youtube\prompt_engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0EFF4D-F9D3-44B6-871A-15EE75CC34ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5C9B89-297D-45E1-A9A8-480A5CFD89EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1185" yWindow="1605" windowWidth="27615" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Topic</t>
   </si>
@@ -306,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -329,7 +329,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -614,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,6 +686,9 @@
         <v>13</v>
       </c>
       <c r="G3" s="3"/>
+      <c r="I3" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">

--- a/prompt_engineering/ROADMAP.xlsx
+++ b/prompt_engineering/ROADMAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hi\Desktop\projects\python_projects\tutorial\tut_youtube\prompt_engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5C9B89-297D-45E1-A9A8-480A5CFD89EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876CA09F-E1FF-4CD2-9F44-EC4997D52C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1185" yWindow="1605" windowWidth="27615" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Topic</t>
   </si>
@@ -306,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -332,7 +332,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -617,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,6 +715,9 @@
       <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="I4" s="10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">

--- a/prompt_engineering/ROADMAP.xlsx
+++ b/prompt_engineering/ROADMAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hi\Desktop\projects\python_projects\tutorial\tut_youtube\prompt_engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876CA09F-E1FF-4CD2-9F44-EC4997D52C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF68B425-4A42-4283-858F-C5BE122A57AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1185" yWindow="1605" windowWidth="27615" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>Topic</t>
   </si>
@@ -335,7 +335,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -620,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,7 +715,7 @@
       <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -739,6 +739,9 @@
         <v>25</v>
       </c>
       <c r="G5" s="3"/>
+      <c r="I5" s="10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
